--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -58,256 +55,256 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>tea</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>job</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>job</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>much</t>
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -676,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6037735849056604</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -779,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -787,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5038759689922481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8913043478260869</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.494949494949495</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,69 +852,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8869969040247678</v>
-      </c>
-      <c r="L5">
-        <v>573</v>
-      </c>
-      <c r="M5">
-        <v>573</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2216216216216216</v>
-      </c>
-      <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>144</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.8746130030959752</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,12 +902,12 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>0.855072463768116</v>
@@ -960,16 +933,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.765625</v>
+        <v>0.7525423728813559</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7489177489177489</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M11">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7322033898305085</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6901408450704225</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6888888888888889</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6781701444622793</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L15">
-        <v>845</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>845</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>401</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6764705882352942</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>836</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>836</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6615384615384615</v>
+        <v>0.640625</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6530612244897959</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6274509803921569</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5972222222222222</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5961538461538461</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5868263473053892</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L26">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5783132530120482</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5726495726495726</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5679012345679012</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5526315789473685</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5409836065573771</v>
+        <v>0.51</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.5394736842105263</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.53</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1683,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.5037593984962406</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L36">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1709,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1735,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4677419354838709</v>
+        <v>0.4513618677042802</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1761,47 +1734,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>0.4454545454545454</v>
+      </c>
+      <c r="L39">
         <v>49</v>
       </c>
-      <c r="K39">
-        <v>0.4609375</v>
-      </c>
-      <c r="L39">
-        <v>118</v>
-      </c>
       <c r="M39">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4603174603174603</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1813,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4578313253012048</v>
+        <v>0.4183813443072703</v>
       </c>
       <c r="L41">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="M41">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1836,50 +1809,50 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>90</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.4447174447174447</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L42">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>226</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.4411764705882353</v>
+        <v>0.4068627450980392</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1891,47 +1864,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.4166666666666667</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.4144144144144144</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1943,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.4054054054054054</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1969,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.4039735099337748</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L47">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1995,99 +1968,99 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.4010989010989011</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L48">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="M48">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>436</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.37</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.3636363636363636</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.3425925925925926</v>
+        <v>0.3308189655172414</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2096,50 +2069,50 @@
         <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>71</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.3381294964028777</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.3349282296650718</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L53">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2151,47 +2124,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.3286637931034483</v>
+        <v>0.3011583011583012</v>
       </c>
       <c r="L54">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="M54">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>623</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.302013422818792</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2200,128 +2173,128 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>104</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2966887417218543</v>
+        <v>0.2699386503067485</v>
       </c>
       <c r="L56">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="M56">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>531</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2957746478873239</v>
+        <v>0.25</v>
       </c>
       <c r="L57">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>550</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2767857142857143</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="L58">
         <v>31</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2615803814713896</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="L59">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.2538461538461538</v>
+        <v>0.2346491228070176</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2333,73 +2306,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>97</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.2478632478632479</v>
+        <v>0.2261306532663317</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.2382445141065831</v>
+        <v>0.2259259259259259</v>
       </c>
       <c r="L62">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M62">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.2379182156133829</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L63">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M63">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N63">
         <v>0.97</v>
@@ -2411,125 +2384,125 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.2285714285714286</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L64">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="M64">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="N64">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>351</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.2269938650306748</v>
+        <v>0.2100238663484487</v>
       </c>
       <c r="L65">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M65">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>126</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.2183098591549296</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.2147239263803681</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.2033898305084746</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="L68">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2541,151 +2514,151 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.2007434944237918</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="L69">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>215</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.2004773269689737</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L70">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>335</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K71">
-        <v>0.1951219512195122</v>
+        <v>0.1922141119221411</v>
       </c>
       <c r="L71">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M71">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N71">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>0.1848739495798319</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L72">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M72">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>194</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K73">
-        <v>0.1821305841924399</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="L73">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M73">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K74">
-        <v>0.175</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L74">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M74">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2697,99 +2670,99 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>363</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K75">
-        <v>0.165</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M75">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N75">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K76">
-        <v>0.1477761836441894</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="L76">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M76">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="N76">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>594</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77">
-        <v>0.1475409836065574</v>
+        <v>0.152958152958153</v>
       </c>
       <c r="L77">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="M77">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>312</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K78">
-        <v>0.1400966183574879</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="L78">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M78">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="N78">
         <v>0.97</v>
@@ -2801,241 +2774,241 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>178</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K79">
-        <v>0.1246485473289597</v>
+        <v>0.1256410256410256</v>
       </c>
       <c r="L79">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="M79">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>934</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K80">
-        <v>0.1217712177121771</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L80">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K81">
-        <v>0.1209677419354839</v>
+        <v>0.1083916083916084</v>
       </c>
       <c r="L81">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>218</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82">
-        <v>0.104089219330855</v>
+        <v>0.1083172147001934</v>
       </c>
       <c r="L82">
         <v>56</v>
       </c>
       <c r="M82">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N82">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O82">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K83">
-        <v>0.104020979020979</v>
+        <v>0.1031941031941032</v>
       </c>
       <c r="L83">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="M83">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="N83">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O83">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1025</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K84">
-        <v>0.1</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L84">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M84">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N84">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>351</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K85">
-        <v>0.0970873786407767</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="L85">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M85">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N85">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O85">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>372</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K86">
-        <v>0.08829174664107485</v>
+        <v>0.07362784471218206</v>
       </c>
       <c r="L86">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M86">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>475</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K87">
-        <v>0.05890227576974565</v>
+        <v>0.04281767955801105</v>
       </c>
       <c r="L87">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M87">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N87">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="O87">
-        <v>0.3100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
